--- a/Lot2/Infos_Etudiants.xlsx
+++ b/Lot2/Infos_Etudiants.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\donnees\SAE1.02\Lot2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BFCE75-1CD2-4091-A89D-C3E0333DBE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648DA787-EE6C-4226-9E2A-6B24D9F03489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16670,10 +16670,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">12/11/2024 - 3 - SyntaxError - missing parentheses in call to 'print'  ajouter des parenthèses à la fonction print
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">02/12/2024 - 4 - SyntaxError - unterminated triple-quoted string literal - fermer la chaîne de caractères triple-quote
 </t>
   </si>
@@ -17137,6 +17133,9 @@
   <si>
     <t xml:space="preserve">25/09/2024 - 1 - NameError - name 'flase' is not defined. Did you mean 'False'? - crire False
 </t>
+  </si>
+  <si>
+    <t>12/11/2024 - 3 - SyntaxError - missing parentheses in call to 'print' - ajouter des parenthèses à la fonction print</t>
   </si>
 </sst>
 </file>
@@ -17172,8 +17171,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17478,8 +17480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A4339"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A4212" workbookViewId="0">
+      <selection activeCell="C4224" sqref="C4224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24612,12 +24614,12 @@
     </row>
     <row r="1425" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1425" t="s">
-        <v>4229</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="1426" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1426" t="s">
-        <v>4307</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="1427" spans="1:1" x14ac:dyDescent="0.35">
@@ -38601,588 +38603,588 @@
       </c>
     </row>
     <row r="4223" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4223" t="s">
-        <v>4220</v>
+      <c r="A4223" s="1" t="s">
+        <v>4338</v>
       </c>
     </row>
     <row r="4224" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4224" t="s">
-        <v>4221</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="4225" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4225" t="s">
-        <v>4222</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="4226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4226" t="s">
-        <v>4223</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="4227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4227" t="s">
-        <v>4224</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="4228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4228" t="s">
-        <v>4225</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="4229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4229" t="s">
-        <v>4226</v>
+        <v>4225</v>
       </c>
     </row>
     <row r="4230" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4230" t="s">
-        <v>4227</v>
+        <v>4226</v>
       </c>
     </row>
     <row r="4231" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4231" t="s">
-        <v>4228</v>
+        <v>4227</v>
       </c>
     </row>
     <row r="4232" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4232" t="s">
-        <v>4230</v>
+        <v>4229</v>
       </c>
     </row>
     <row r="4233" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4233" t="s">
-        <v>4231</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="4234" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4234" t="s">
-        <v>4232</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="4235" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4235" t="s">
-        <v>4233</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="4236" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4236" t="s">
-        <v>4234</v>
+        <v>4233</v>
       </c>
     </row>
     <row r="4237" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4237" t="s">
-        <v>4235</v>
+        <v>4234</v>
       </c>
     </row>
     <row r="4238" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4238" t="s">
-        <v>4236</v>
+        <v>4235</v>
       </c>
     </row>
     <row r="4239" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4239" t="s">
-        <v>4237</v>
+        <v>4236</v>
       </c>
     </row>
     <row r="4240" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4240" t="s">
-        <v>4238</v>
+        <v>4237</v>
       </c>
     </row>
     <row r="4241" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4241" t="s">
-        <v>4239</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="4242" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4242" t="s">
-        <v>4240</v>
+        <v>4239</v>
       </c>
     </row>
     <row r="4243" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4243" t="s">
-        <v>4241</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="4244" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4244" t="s">
-        <v>4242</v>
+        <v>4241</v>
       </c>
     </row>
     <row r="4245" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4245" t="s">
-        <v>4243</v>
+        <v>4242</v>
       </c>
     </row>
     <row r="4246" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4246" t="s">
-        <v>4244</v>
+        <v>4243</v>
       </c>
     </row>
     <row r="4247" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4247" t="s">
-        <v>4245</v>
+        <v>4244</v>
       </c>
     </row>
     <row r="4248" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4248" t="s">
-        <v>4246</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="4249" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4249" t="s">
-        <v>4247</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="4250" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4250" t="s">
-        <v>4248</v>
+        <v>4247</v>
       </c>
     </row>
     <row r="4251" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4251" t="s">
-        <v>4249</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="4252" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4252" t="s">
-        <v>4250</v>
+        <v>4249</v>
       </c>
     </row>
     <row r="4253" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4253" t="s">
-        <v>4251</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="4254" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4254" t="s">
-        <v>4252</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="4255" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4255" t="s">
-        <v>4253</v>
+        <v>4252</v>
       </c>
     </row>
     <row r="4256" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4256" t="s">
-        <v>4254</v>
+        <v>4253</v>
       </c>
     </row>
     <row r="4257" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4257" t="s">
-        <v>4255</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="4258" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4258" t="s">
-        <v>4256</v>
+        <v>4255</v>
       </c>
     </row>
     <row r="4259" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4259" t="s">
-        <v>4257</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="4260" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4260" t="s">
-        <v>4258</v>
+        <v>4257</v>
       </c>
     </row>
     <row r="4261" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4261" t="s">
-        <v>4259</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="4262" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4262" t="s">
-        <v>4260</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="4263" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4263" t="s">
-        <v>4261</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="4264" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4264" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="4265" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4265" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="4266" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4266" t="s">
-        <v>4264</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="4267" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4267" t="s">
-        <v>4265</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="4268" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4268" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="4269" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4269" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="4270" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4270" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
     </row>
     <row r="4271" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4271" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="4272" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4272" t="s">
-        <v>4270</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="4273" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4273" t="s">
-        <v>4271</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="4274" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4274" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="4275" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4275" t="s">
-        <v>4273</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="4276" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4276" t="s">
-        <v>4274</v>
+        <v>4273</v>
       </c>
     </row>
     <row r="4277" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4277" t="s">
-        <v>4275</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="4278" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4278" t="s">
-        <v>4276</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="4279" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4279" t="s">
-        <v>4277</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="4280" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4280" t="s">
-        <v>4278</v>
+        <v>4277</v>
       </c>
     </row>
     <row r="4281" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4281" t="s">
-        <v>4279</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="4282" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4282" t="s">
-        <v>4280</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="4283" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4283" t="s">
-        <v>4281</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="4284" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4284" t="s">
-        <v>4282</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="4285" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4285" t="s">
-        <v>4283</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="4286" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4286" t="s">
-        <v>4284</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="4287" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4287" t="s">
-        <v>4285</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="4288" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4288" t="s">
-        <v>4286</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="4289" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4289" t="s">
-        <v>4287</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="4290" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4290" t="s">
-        <v>4288</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="4291" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4291" t="s">
-        <v>4289</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="4292" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4292" t="s">
-        <v>4290</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="4293" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4293" t="s">
-        <v>4291</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="4294" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4294" t="s">
-        <v>4292</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="4295" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4295" t="s">
-        <v>4293</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="4296" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4296" t="s">
-        <v>4294</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="4297" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4297" t="s">
-        <v>4295</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="4298" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4298" t="s">
-        <v>4296</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="4299" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4299" t="s">
-        <v>4297</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="4300" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4300" t="s">
-        <v>4298</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="4301" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4301" t="s">
-        <v>4299</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="4302" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4302" t="s">
-        <v>4300</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="4303" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4303" t="s">
-        <v>4301</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="4304" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4304" t="s">
-        <v>4302</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="4305" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4305" t="s">
-        <v>4303</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="4306" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4306" t="s">
-        <v>4304</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="4307" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4307" t="s">
-        <v>4305</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="4308" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4308" t="s">
-        <v>4306</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="4309" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4309" t="s">
-        <v>4308</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="4310" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4310" t="s">
-        <v>4309</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="4311" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4311" t="s">
-        <v>4310</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="4312" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4312" t="s">
-        <v>4311</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="4313" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4313" t="s">
-        <v>4312</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="4314" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4314" t="s">
-        <v>4313</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="4315" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4315" t="s">
-        <v>4314</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="4316" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4316" t="s">
-        <v>4315</v>
+        <v>4314</v>
       </c>
     </row>
     <row r="4317" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4317" t="s">
-        <v>4316</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="4318" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4318" t="s">
-        <v>4317</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="4319" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4319" t="s">
-        <v>4318</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="4320" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4320" t="s">
-        <v>4319</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="4321" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4321" t="s">
-        <v>4320</v>
+        <v>4319</v>
       </c>
     </row>
     <row r="4322" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4322" t="s">
-        <v>4321</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="4323" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4323" t="s">
-        <v>4322</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="4324" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4324" t="s">
-        <v>4323</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="4325" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4325" t="s">
-        <v>4324</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="4326" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4326" t="s">
-        <v>4325</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="4327" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4327" t="s">
-        <v>4326</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="4328" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4328" t="s">
-        <v>4327</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="4329" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4329" t="s">
-        <v>4328</v>
+        <v>4327</v>
       </c>
     </row>
     <row r="4330" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4330" t="s">
-        <v>4329</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="4331" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4331" t="s">
-        <v>4330</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="4332" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4332" t="s">
-        <v>4331</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="4333" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4333" t="s">
-        <v>4332</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="4334" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4334" t="s">
-        <v>4333</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="4335" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4335" t="s">
-        <v>4334</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="4336" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4336" t="s">
-        <v>4335</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="4337" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4337" t="s">
-        <v>4336</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="4338" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4338" t="s">
-        <v>4337</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="4339" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4339" t="s">
-        <v>4338</v>
+        <v>4337</v>
       </c>
     </row>
   </sheetData>
